--- a/Jesse-GAD驿馆6月结算申报.xlsx
+++ b/Jesse-GAD驿馆6月结算申报.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -549,7 +549,7 @@
         <v>42541</v>
       </c>
       <c r="G2" s="3">
-        <v>666</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33">
@@ -572,7 +572,7 @@
         <v>42544</v>
       </c>
       <c r="G3" s="3">
-        <v>1125</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
